--- a/SCOPE_v1.73/input_data_withcitations.xlsx
+++ b/SCOPE_v1.73/input_data_withcitations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe_pierrat/Documents/GitHub/SCOPE_matlab/SCOPE_v1.73/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10665210-DD4F-B943-8AB8-4CF03D8FB8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BF926-46E4-B349-A2ED-DCE977C4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21300" yWindow="-8860" windowWidth="20240" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21480" yWindow="-11740" windowWidth="20240" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="359">
   <si>
     <t>Cab</t>
   </si>
@@ -438,31 +438,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1: time series (uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">text files </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with meteo input as time series)</t>
-    </r>
-  </si>
-  <si>
     <t>Keep the options in  this order, because Matlab reads only column A</t>
   </si>
   <si>
@@ -787,9 +762,6 @@
   </si>
   <si>
     <t>observation zenith angle</t>
-  </si>
-  <si>
-    <t>azimuthal difference between solar and observation angle</t>
   </si>
   <si>
     <t>Tyear</t>
@@ -1521,6 +1493,27 @@
   </si>
   <si>
     <t xml:space="preserve">Central Time </t>
+  </si>
+  <si>
+    <t>azimuthal difference between solar and observation angle  (not used if options.dynamic_azimuth = 1 and options.simulation = 1)</t>
+  </si>
+  <si>
+    <t>vazi</t>
+  </si>
+  <si>
+    <t>fixed point observation azimuth angle e.g. 180=North (only used if options.dynamic_azimuth = 1)</t>
+  </si>
+  <si>
+    <t>sazi</t>
+  </si>
+  <si>
+    <t>solar azimuth angle</t>
+  </si>
+  <si>
+    <t>dynamic_azimuth</t>
+  </si>
+  <si>
+    <t>calculate the azimuthal difference between solar and observation angle (psi) according to a fixed observation azimuth angle (i.e. psi varies according to the sun-sensor geometry)</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1996,6 +1989,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,57 +2350,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,7 +2408,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2422,7 +2416,7 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2430,7 +2424,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2438,7 +2432,7 @@
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2451,7 +2445,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2459,7 +2453,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2467,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,7 +2469,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,7 +2477,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2485,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,7 +2493,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2507,7 +2501,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2515,7 +2509,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2528,7 +2522,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2536,7 +2530,7 @@
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,17 +2541,17 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,7 +2559,7 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2573,7 +2567,7 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2581,7 +2575,7 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,7 +2583,7 @@
         <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,7 +2591,7 @@
         <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2605,32 +2599,32 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="53" t="s">
         <v>102</v>
@@ -2646,7 +2640,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="11">
         <v>1</v>
@@ -2657,7 +2651,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="11">
         <v>-1</v>
@@ -2668,7 +2662,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="11">
         <v>0</v>
@@ -2679,7 +2673,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="11">
         <v>0</v>
@@ -2690,7 +2684,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="11">
         <v>-0.35</v>
@@ -2701,7 +2695,7 @@
     </row>
     <row r="63" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="12">
         <v>0</v>
@@ -2712,14 +2706,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
@@ -2731,42 +2725,42 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="F69" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="G69" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="H69" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="I69" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="J69" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C70" s="25">
         <v>0.2</v>
@@ -2795,10 +2789,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" s="25">
         <v>0.2</v>
@@ -2827,10 +2821,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C72" s="25">
         <v>0.2</v>
@@ -2859,10 +2853,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73" s="25">
         <v>0.2</v>
@@ -2891,10 +2885,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C74" s="25">
         <v>0.2</v>
@@ -2923,10 +2917,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C75" s="25">
         <v>0.2</v>
@@ -2955,10 +2949,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C76" s="25">
         <v>0.2</v>
@@ -2987,10 +2981,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C77" s="25">
         <v>0.2</v>
@@ -3019,10 +3013,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C78" s="25">
         <v>0.2</v>
@@ -3051,10 +3045,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C79" s="25">
         <v>0.2</v>
@@ -3083,10 +3077,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C80" s="25">
         <v>0.2</v>
@@ -3115,10 +3109,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C81" s="25">
         <v>0.2</v>
@@ -3147,10 +3141,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C82" s="33">
         <v>0.2</v>
@@ -3179,7 +3173,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3187,30 +3181,30 @@
         <v>74</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" s="41" t="s">
         <v>304</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="F86" s="41" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B87" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="42">
         <v>1000</v>
@@ -3225,13 +3219,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88" s="42">
         <v>209</v>
@@ -3246,13 +3240,13 @@
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B89" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D89" s="43">
         <v>1.4999999999999999E-2</v>
@@ -3267,13 +3261,13 @@
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D90" s="43">
         <v>7</v>
@@ -3288,34 +3282,34 @@
     </row>
     <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B91" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="42" t="s">
         <v>308</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>310</v>
       </c>
       <c r="G91" s="42"/>
     </row>
     <row r="92" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92" s="42">
         <v>380</v>
@@ -3329,16 +3323,16 @@
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E93" s="42">
         <v>0</v>
@@ -3349,13 +3343,13 @@
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D94" s="42">
         <v>1</v>
@@ -3369,13 +3363,13 @@
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D95" s="45">
         <v>0</v>
@@ -3389,13 +3383,13 @@
     </row>
     <row r="96" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D96" s="47">
         <v>1</v>
@@ -3425,7 +3419,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3441,7 +3435,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3463,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>106</v>
@@ -3474,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>107</v>
@@ -3485,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3496,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3507,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3529,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
@@ -3540,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
         <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3551,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3562,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15" t="s">
         <v>109</v>
@@ -3573,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
         <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3584,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
         <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3595,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -3609,7 +3603,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
         <v>110</v>
@@ -3646,9 +3640,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="58">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>357</v>
+      </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3694,7 +3693,7 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3710,7 +3709,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3731,7 +3730,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3739,7 +3738,7 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3755,7 +3754,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3763,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3771,7 +3770,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3779,7 +3778,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3814,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,12 +3854,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -3875,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DV89"/>
+  <dimension ref="A1:DV91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3898,7 +3897,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -3914,13 +3913,13 @@
         <v>75</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="5"/>
@@ -3939,31 +3938,31 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" t="s">
         <v>138</v>
       </c>
-      <c r="I9" t="s">
-        <v>139</v>
-      </c>
       <c r="J9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AA9"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B10">
         <v>7.8</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA10"/>
     </row>
@@ -3975,10 +3974,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" t="s">
         <v>140</v>
-      </c>
-      <c r="I11" t="s">
-        <v>141</v>
       </c>
       <c r="AA11"/>
     </row>
@@ -3990,10 +3989,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
         <v>142</v>
-      </c>
-      <c r="I12" t="s">
-        <v>143</v>
       </c>
       <c r="AA12"/>
     </row>
@@ -4005,25 +4004,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
         <v>144</v>
-      </c>
-      <c r="I13" t="s">
-        <v>145</v>
       </c>
       <c r="AA13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AA14"/>
     </row>
@@ -4035,10 +4034,10 @@
         <v>1.4</v>
       </c>
       <c r="H15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
         <v>146</v>
-      </c>
-      <c r="I15" t="s">
-        <v>147</v>
       </c>
       <c r="AA15"/>
     </row>
@@ -4051,7 +4050,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA16"/>
     </row>
@@ -4063,7 +4062,7 @@
         <v>0.01</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA17"/>
     </row>
@@ -4083,13 +4082,13 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" t="s">
         <v>150</v>
       </c>
-      <c r="I20" t="s">
-        <v>151</v>
-      </c>
       <c r="J20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA20"/>
     </row>
@@ -4101,10 +4100,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AZ21" s="4"/>
@@ -4116,7 +4115,7 @@
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>0.01</v>
@@ -4137,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AZ23" s="4"/>
@@ -4155,7 +4154,7 @@
         <v>0.63959999999999995</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA24"/>
     </row>
@@ -4167,7 +4166,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AZ25" s="4"/>
@@ -4197,7 +4196,7 @@
         <v>328</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AZ26" s="4"/>
       <c r="BY26" s="4"/>
@@ -4205,21 +4204,21 @@
     </row>
     <row r="27" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AZ28" s="4"/>
       <c r="BY28" s="4"/>
@@ -4227,16 +4226,16 @@
     </row>
     <row r="29" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29">
         <v>0.50700000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AZ29" s="4"/>
       <c r="BY29" s="4"/>
@@ -4244,16 +4243,16 @@
     </row>
     <row r="30" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BY30" s="4"/>
@@ -4261,16 +4260,16 @@
     </row>
     <row r="31" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AZ31" s="4"/>
       <c r="BY31" s="4"/>
@@ -4278,13 +4277,13 @@
     </row>
     <row r="32" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AZ32" s="4"/>
       <c r="BY32" s="4"/>
@@ -4313,7 +4312,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB35" s="9"/>
       <c r="AZ35" s="4"/>
@@ -4345,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AZ38" s="4"/>
       <c r="BY38" s="4"/>
@@ -4359,10 +4358,10 @@
         <v>500</v>
       </c>
       <c r="H39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" t="s">
         <v>159</v>
-      </c>
-      <c r="I39" t="s">
-        <v>160</v>
       </c>
       <c r="AZ39" s="4"/>
       <c r="BY39" s="4"/>
@@ -4376,7 +4375,7 @@
         <v>0.06</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AZ40" s="4"/>
       <c r="BY40" s="4"/>
@@ -4390,10 +4389,10 @@
         <v>1180</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AZ41" s="4"/>
       <c r="BY41" s="4"/>
@@ -4407,10 +4406,10 @@
         <v>1800</v>
       </c>
       <c r="H42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" t="s">
         <v>162</v>
-      </c>
-      <c r="I42" t="s">
-        <v>163</v>
       </c>
       <c r="AZ42" s="4"/>
       <c r="BY42" s="4"/>
@@ -4424,10 +4423,10 @@
         <v>1.55</v>
       </c>
       <c r="H43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" t="s">
         <v>164</v>
-      </c>
-      <c r="I43" t="s">
-        <v>165</v>
       </c>
       <c r="AZ43" s="4"/>
       <c r="BY43" s="4"/>
@@ -4441,7 +4440,7 @@
         <v>0.25</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AZ44" s="4"/>
       <c r="BY44" s="4"/>
@@ -4449,13 +4448,13 @@
     </row>
     <row r="45" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B45">
         <v>0.5</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AZ45" s="4"/>
       <c r="BY45" s="4"/>
@@ -4463,13 +4462,13 @@
     </row>
     <row r="46" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B46">
         <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AZ46" s="4"/>
       <c r="BY46" s="4"/>
@@ -4477,13 +4476,13 @@
     </row>
     <row r="47" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AZ47" s="4"/>
       <c r="BY47" s="4"/>
@@ -4511,13 +4510,13 @@
         <v>3.6</v>
       </c>
       <c r="H50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" t="s">
         <v>167</v>
       </c>
-      <c r="I50" t="s">
-        <v>168</v>
-      </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -4630,10 +4629,10 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AB51" s="9"/>
     </row>
@@ -4648,7 +4647,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="I52" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J52" s="11"/>
       <c r="AB52" s="9"/>
@@ -4664,7 +4663,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="I53" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J53" s="11"/>
       <c r="AB53" s="9"/>
@@ -4680,7 +4679,7 @@
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB54" s="9"/>
     </row>
@@ -4701,7 +4700,7 @@
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:126" x14ac:dyDescent="0.2">
@@ -4712,10 +4711,10 @@
         <v>600</v>
       </c>
       <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" t="s">
         <v>174</v>
-      </c>
-      <c r="I58" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:126" x14ac:dyDescent="0.2">
@@ -4726,10 +4725,10 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" t="s">
         <v>176</v>
-      </c>
-      <c r="I59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:126" x14ac:dyDescent="0.2">
@@ -4740,10 +4739,10 @@
         <v>300</v>
       </c>
       <c r="H60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:126" x14ac:dyDescent="0.2">
@@ -4754,10 +4753,10 @@
         <v>970</v>
       </c>
       <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" t="s">
         <v>179</v>
-      </c>
-      <c r="I61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:126" x14ac:dyDescent="0.2">
@@ -4768,10 +4767,10 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:126" x14ac:dyDescent="0.2">
@@ -4782,10 +4781,10 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
+        <v>181</v>
+      </c>
+      <c r="I63" t="s">
         <v>182</v>
-      </c>
-      <c r="I63" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:126" x14ac:dyDescent="0.2">
@@ -4796,13 +4795,13 @@
         <v>380</v>
       </c>
       <c r="H64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" t="s">
         <v>184</v>
       </c>
-      <c r="I64" t="s">
-        <v>185</v>
-      </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -4813,10 +4812,10 @@
         <v>209</v>
       </c>
       <c r="H65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" t="s">
         <v>186</v>
-      </c>
-      <c r="I65" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4837,7 +4836,7 @@
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB68" s="9"/>
     </row>
@@ -4853,7 +4852,7 @@
         <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB69" s="9"/>
     </row>
@@ -4865,7 +4864,7 @@
         <v>0.3</v>
       </c>
       <c r="I70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB70" s="9"/>
     </row>
@@ -4877,10 +4876,10 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB71" s="9"/>
     </row>
@@ -4892,7 +4891,7 @@
         <v>0.35</v>
       </c>
       <c r="I72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -4903,7 +4902,7 @@
         <v>20.6</v>
       </c>
       <c r="I73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -4914,7 +4913,7 @@
         <v>0.2</v>
       </c>
       <c r="I74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -4925,7 +4924,7 @@
         <v>0.01</v>
       </c>
       <c r="I75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -4936,10 +4935,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -4950,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4970,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB80" s="9"/>
     </row>
@@ -4982,7 +4981,7 @@
         <v>365</v>
       </c>
       <c r="I81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB81" s="9"/>
     </row>
@@ -4994,10 +4993,10 @@
         <v>53.98</v>
       </c>
       <c r="H82" t="s">
+        <v>199</v>
+      </c>
+      <c r="I82" t="s">
         <v>200</v>
-      </c>
-      <c r="I82" t="s">
-        <v>201</v>
       </c>
       <c r="AB82" s="9"/>
     </row>
@@ -5009,10 +5008,10 @@
         <v>105.12</v>
       </c>
       <c r="H83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB83" s="9"/>
     </row>
@@ -5024,13 +5023,13 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
+        <v>202</v>
+      </c>
+      <c r="I84" t="s">
         <v>203</v>
       </c>
-      <c r="I84" t="s">
-        <v>204</v>
-      </c>
       <c r="J84" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5043,14 +5042,14 @@
       <c r="A87" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="9">
-        <v>30</v>
+      <c r="B87">
+        <v>45</v>
       </c>
       <c r="H87" t="s">
+        <v>204</v>
+      </c>
+      <c r="I87" t="s">
         <v>205</v>
-      </c>
-      <c r="I87" t="s">
-        <v>206</v>
       </c>
       <c r="AB87" s="9"/>
     </row>
@@ -5058,14 +5057,14 @@
       <c r="A88" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB88" s="9"/>
     </row>
@@ -5073,16 +5072,44 @@
       <c r="A89" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89">
         <v>90</v>
       </c>
       <c r="H89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I89" t="s">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="AB89" s="9"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90">
+        <v>180</v>
+      </c>
+      <c r="H90" t="s">
+        <v>204</v>
+      </c>
+      <c r="I90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>204</v>
+      </c>
+      <c r="I91" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/SCOPE_v1.73/input_data_withcitations.xlsx
+++ b/SCOPE_v1.73/input_data_withcitations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe_pierrat/Documents/GitHub/SCOPE_matlab/SCOPE_v1.73/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BF926-46E4-B349-A2ED-DCE977C4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAEEDDE-4709-9349-BAA1-4685EEE6C427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21480" yWindow="-11740" windowWidth="20240" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18200" yWindow="-2320" windowWidth="16960" windowHeight="20120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="360">
   <si>
     <t>Cab</t>
   </si>
@@ -1514,6 +1514,9 @@
   </si>
   <si>
     <t>calculate the azimuthal difference between solar and observation angle (psi) according to a fixed observation azimuth angle (i.e. psi varies according to the sun-sensor geometry)</t>
+  </si>
+  <si>
+    <t>RaymentTreePhys2002_vcmax_.dat</t>
   </si>
 </sst>
 </file>
@@ -1980,6 +1983,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1989,7 +1993,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2623,20 +2626,20 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="54" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
@@ -2712,13 +2715,13 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="18"/>
@@ -3640,7 +3643,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="58">
+      <c r="A23" s="53">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3667,7 +3670,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3846,6 +3849,9 @@
       <c r="A31" t="s">
         <v>71</v>
       </c>
+      <c r="B31" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3876,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DV91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5005,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="B83">
-        <v>105.12</v>
+        <v>254.88300000000001</v>
       </c>
       <c r="H83" t="s">
         <v>199</v>
